--- a/doc/Aanvullende taken/My vending- Test Performance List.xlsx
+++ b/doc/Aanvullende taken/My vending- Test Performance List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proftaak2018\doc\Aanvullende taken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F11297C2-A587-4866-92B1-1A09551437BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F5E7897D-E776-498E-805D-E1BF89624909}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
   <si>
     <t>nr</t>
   </si>
@@ -55,9 +55,6 @@
 wat verwacht je?</t>
   </si>
   <si>
-    <t>gemaakt door de tester, naam: !!!</t>
-  </si>
-  <si>
     <t>gemaakt door de testplanschrijver, naam: ???</t>
   </si>
   <si>
@@ -347,6 +344,12 @@
   </si>
   <si>
     <t>je balans op je rekening gaat omlaag</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>gemaakt door de tester, Max vd Boom</t>
   </si>
 </sst>
 </file>
@@ -733,8 +736,8 @@
   <dimension ref="A2:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,17 +756,17 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -773,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
@@ -799,419 +802,554 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="5" t="s">
+    <row r="26" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+      <c r="G26" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="5" t="s">
+    <row r="31" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
+      <c r="G32" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="5" t="s">
+    <row r="35" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C33" s="5" t="s">
+      <c r="G35" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C39" s="5" t="s">
+      <c r="G39" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G40" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
+      <c r="G43" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C45" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="5" t="s">
+    <row r="49" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C46" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C47" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C49" s="5" t="s">
+      <c r="G49" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C50" s="5" t="s">
+      <c r="G50" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C51" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C51" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C52" s="5" t="s">
+      <c r="G52" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C53" s="5" t="s">
+      <c r="G53" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C54" s="5" t="s">
+      <c r="G54" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C55" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C55" s="5" t="s">
+      <c r="G55" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C56" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C56" s="5" t="s">
+      <c r="G56" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C57" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C57" s="5" t="s">
+      <c r="G57" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F57" s="5" t="s">
+    </row>
+    <row r="59" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C59" s="5" t="s">
+      <c r="G59" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C60" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F60" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C60" s="5" t="s">
+      <c r="G60" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C61" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F61" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C61" s="5" t="s">
+      <c r="G61" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F62" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C62" s="5" t="s">
+      <c r="G62" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C63" s="5" t="s">
+      <c r="G63" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C64" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C64" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="5" t="s">
+      <c r="G64" s="2" t="s">
         <v>105</v>
       </c>
     </row>
